--- a/docs/scores.xlsx
+++ b/docs/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finnim\Documents\GitHub\ML-Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124D689-DCE7-4C4D-B309-92AF4B19A8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E509DDB-FAC9-4085-9CC4-4150E5CF0BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{870F59AD-4199-4576-B01C-2508999434AF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">  kernel='rbf', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
   </si>
@@ -79,13 +79,40 @@
   </si>
   <si>
     <t xml:space="preserve">    normalize=False, scoring=None, store_cv_values=False)</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>SGDRegressor</t>
+  </si>
+  <si>
+    <t>BayesianRidge</t>
+  </si>
+  <si>
+    <t>LassoLars</t>
+  </si>
+  <si>
+    <t>PassiveAggressiveRegressor</t>
+  </si>
+  <si>
+    <t>LinearRegression</t>
+  </si>
+  <si>
+    <t>RidgeCV</t>
+  </si>
+  <si>
+    <t>TheilSenRegressor</t>
+  </si>
+  <si>
+    <t>ARDRegression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +131,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,13 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,21 +485,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1E7F62-42A3-4A65-AE6E-F0A830815CAB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -481,155 +520,218 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>4.4865617439131499E-3</v>
+      </c>
+      <c r="C2">
+        <v>4.8826529626657296E-3</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.RANK.AVG(B2,B$2:B$10,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E10" si="0">_xlfn.RANK.AVG(C2,C$2:C$10,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>8.9795364404802805E-2</v>
-      </c>
-      <c r="C2">
-        <v>9.2517144747979896E-2</v>
-      </c>
-      <c r="D2">
-        <f>_xlfn.RANK.AVG(B2,B$2:B$8,1)</f>
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">_xlfn.RANK.AVG(C2,C$2:C$8,1)</f>
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8.3920859472495698E+18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.3920861175291996E+18</v>
+    <row r="3" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>56793785900.8078</v>
+      </c>
+      <c r="C3" s="3">
+        <v>63882176543.399696</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">_xlfn.RANK.AVG(B3,B$2:B$8,1)</f>
-        <v>7</v>
+        <f t="shared" ref="D3:D10" si="1">_xlfn.RANK.AVG(B3,B$2:B$10,1)</f>
+        <v>9</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>1.8088257461682401E-2</v>
+        <v>2.99786744963236E-3</v>
       </c>
       <c r="C4">
-        <v>3.0229285858572302E-2</v>
+        <v>3.84257383747523E-3</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>1.83748839768384E-2</v>
+        <v>4.0113080197695496E-3</v>
       </c>
       <c r="C5">
-        <v>3.0367853977666798E-2</v>
+        <v>4.5505774326019804E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>8.9770194200426895E-2</v>
+        <v>4.0113080197695496E-3</v>
       </c>
       <c r="C6">
-        <v>9.2492268884048504E-2</v>
+        <v>4.5505774326019804E-3</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1.19951274694558E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.2813513159574901E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>3.3342500118536201E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.2694174115470796E-3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.01292992342167E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.8497610707625002E-3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.80880243138931E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.0229286871371799E-2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2.9966228344394498E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.8425029524120301E-3</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1.80880778773287E-2</v>
-      </c>
-      <c r="C8">
-        <v>3.0229287363110299E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
